--- a/utag_ug_archiver/static/dashboard/assets/sample_files/admins_sample_file.xlsx
+++ b/utag_ug_archiver/static/dashboard/assets/sample_files/admins_sample_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S T I G A R\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\Documents\Github\UTAG-UG-Archiver\utag_ug_archiver\static\dashboard\assets\sample_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{267F9984-B00D-471F-8D59-6924916450B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAAFBC7-4A5D-4EB5-9821-186DC208A108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{5AC31FFD-5C0F-4328-886D-AB25890F8AF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AC31FFD-5C0F-4328-886D-AB25890F8AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,6 +446,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -497,6 +499,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2CA72FDC5CD254292F9E3D4395BF2F9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6263878bf45b0c1bcb1236a301e90887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="db9b2b83-228a-43ef-b25b-c76a9cf2d396" xmlns:ns4="cc356573-543f-4081-bada-acd90ba34eef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c5217764f8597c82c827dab6b15526a" ns3:_="" ns4:_="">
     <xsd:import namespace="db9b2b83-228a-43ef-b25b-c76a9cf2d396"/>
@@ -705,22 +722,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B1CA43-DFF8-4982-933E-CECA9B3468BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="cc356573-543f-4081-bada-acd90ba34eef"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="db9b2b83-228a-43ef-b25b-c76a9cf2d396"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104BB9C4-B954-4A83-84B8-5010163678A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22CD17E-03E5-477C-AF8E-7B580E8A995C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -737,29 +764,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104BB9C4-B954-4A83-84B8-5010163678A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B1CA43-DFF8-4982-933E-CECA9B3468BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="cc356573-543f-4081-bada-acd90ba34eef"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="db9b2b83-228a-43ef-b25b-c76a9cf2d396"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>